--- a/story/主线剧情/main/level_main_08-08_end.xlsx
+++ b/story/主线剧情/main/level_main_08-08_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="391">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="爱国者"]  清点伤亡。
 </t>
   </si>
@@ -791,6 +797,782 @@
   </si>
   <si>
     <t xml:space="preserve">[name="タルラ"]  私の全ての友人たちと同じように。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Take a count of the dead and wounded.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  It’s just as you said. They used us as bait, and a battle ensued.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Are you disappointed, Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  —No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  They had their reasons for doing this, and I also know exactly what they were. Knowing they had a legitimate reason, I couldn’t possibly have gotten my hopes up. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ...The informant must be executed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And how should we pick out this traitor, out of all the people that wanted to flee the battlefield?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  They betrayed their brothers-in-arms for a moment of peace. If you make excuses for them, you’re only putting your warriors in harm’s way. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No. They never swore their loyalty to us in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You want every last person on your team to be absolutely perfect? That’s impossible. You won’t find a squad like that anywhere.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  But the guerrillas—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The guerrilla fighters aren’t perfect either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  There are only a handful of people as perfect as you're making them out to be. Everyone else has their own reasons to be here, and only because they are willing to pay the price, but that doesn't mean they've thought it all through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Stand down, soldier. Don’t try to argue with her. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It takes a lot more work to build a city than to destroy one, Mister. Just let them stay. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If there’s more than one way for the Infected to survive, I’d rather see all of those ways work out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Talulah, you can’t always try to go about everything without making sacrifices.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sacrifices...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Is that even up to me to decide?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  All of us are prepared for the worst. You can’t win without spilling blood. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Heading south will lead to war. I know it, and I am sure you know it too.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  The Empire isn’t going to sit by and watch the Infected unite and grow into a major force. If everything goes the way you pitched it and the Infected actually manage to take their fate into their own hands, then this war is inevitable. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  —You’re right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We need to first let the Infected understand that their lives have meaning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  They don’t have an obligation to face anything that comes after that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You want the guerrillas to fight this war?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Talulah, are you waiting for a war to break out between Ursus and another country, one that you can profit from...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Or are you trying to sow the seeds of that war yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (Silence)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You don’t want to give me an answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You should know that any victory you can hope to achieve will bring with it disastrous results.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re probably right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But that doesn’t mean I’m going to sacrifice any lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Are you prepared to bear the tremendous pain to come?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Not at all. Things are bound to be painful, after all. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Do you expect everyone to be so kind-hearted?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I simply have faith that the people of Ursus weren’t born selfish and cruel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Perhaps you’ll come face to face with real evil one day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’ve already crossed paths with my old friend a few times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I sure hope so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If a soldier swears loyalty to his fellow men only to later betray them for his own profit, I will personally write up his charges.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But if the group of Infected we are dealing with aren’t fighting for the same cause as us, what gives us the right to annihilate them? It doesn’t make them our enemies. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Ngh...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Please, go on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  There are a lot of people whom I respected. Not for their strength, but for their honesty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  —I can only hope you are one of them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...I will keep that in mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Petrova, where’s FrostNova at right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  ...She’s still at the mountain pass. She said she’s holding the fort there until we finish capturing the city. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Let’s rendezvous with them. I need to apologize to her personally. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  So... Is that it, Captain?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  There should still be at least three garrisons around. We need to take down every last one of them before we can get the supplies out. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  All things considered, she made the right decision. The nomadic city doesn’t have that much longer of a walk ahead of it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  Oh, Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  Are you in a bad mood, Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Nope, I’m fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Eno, Sasha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Do you still want me to use your real names?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  ...Why do you ask?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s better to have a name that we can use to protect ourselves when we are so far away from home.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sometimes, if we don’t pick a name for ourselves, we will only ever be called the names others give us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  But you haven’t ever given yourself another name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That’s only because I don’t want to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  Why? You were just saying we should use different names. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Because... I want to be the same person both inside and out. I want to become someone whose actions represent her beliefs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  So then your current actions are different from your words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  Sasha!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re right. That’s very likely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That’s why I insist on using my name. It’s just that the name doesn’t really have much meaning to everyone else. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  After all, who I am isn’t important to any of them. My name is only important to myself. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  So what should I call you, then? When you put it like this, I’m not sure what I’m supposed to call you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Sasha, how about I put it this way, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m just a rebel, just a normal person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  My name? That’s not important. No one should remember my name. This name shouldn’t become a symbol, and it shouldn’t come to have any other kind of power. It’s just my name, and it’s nothing more than a name.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If you want to call me by a name, you can just call me Talulah for now. When you call me by my name, I’ll turn around and look back, but that’s all there is to it. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You can call me Talulah too, Eno.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It may be a little too early to tell you two this... but I want to, Sasha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  Go on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I want you call me Talulah because I want you to think of me as a friend. Good friends like we’re all peas in a pod. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Even if I die, you will still remember my name, but not because I did anything special during my lifetime.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I just want you to remember the time we spent together. I want you to remember you once had a friend called Talulah. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  But you’re killing bad guys. You’re fighting them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The girl who fights shouldn’t have a name. Everyone has their own fight. We are all fighters. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don’t hang your head and just follow in the fighters’ footsteps. Don’t do that! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Not everyone is like Patriot. All of us make mistakes. Look ahead of you, and look at where he’s going. You don’t just keep your eyes shut and follow whoever that has the more important-sounding title. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The names you remember are your friends’ names. The names of the people you spend the most time with. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s FrostNova who gave you that extra spicy candy but still gritted her teeth and smiled. It’s your teacher, who made you that weird vegetable stew. It’s Patriot, who will never give up on training you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  They are all your friends, not fighters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  As fighters, we don’t have names.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eno"]  ...Talulah, I don’t get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well... I want you to trust me because I’m your friend, not because of my position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just like all my other friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  사상자의 수를 확인해라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네 예상한 대로, 우리를 미끼로 삼은 전투가 시작됐다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  실망했나, 탈룰라?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……아뇨.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그들이 이렇게 한 데에는 그만한 이유가 있어요, 저도 잘 알고 있는 이유죠…… 덕분에 저도 괜한 기대감을 버릴 수 있었어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……밀고자는 사형에 처해야 한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전쟁터에서 벗어나려 몸부림치던 사람 중에서 어떻게 반역자를 알아볼 수 있을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  자신들의 사리사욕을 위해 동료를 팔아넘긴 자들을 두둔하는 건 전사의 명예를 짓밟는 짓이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아뇨, 그들은 단 한 번도 '충성'한 적이 없어요, 패트리어트 씨.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  모든 대원이 완벽하길 바라시나요? 그건 불가능해요, 그런 부대는 존재하지 않아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  유격대……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  유격대의 전사들도 완벽하진 않아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  유격대 중에도 엉뚱한 생각을 가진 사람들이 있죠. 이런저런 이유로 남긴 했지만 무슨 생각을 갖고 있는지 제대로 알 수 없는 사람들도 있고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  물러서라, 병사여. 논쟁은 불필요하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  도시를 파괴하는 것보단 도시를 세우는 편이 더 쉬워요. 패트리어트 씨, 그들을 그냥 놓아주세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  감염자가 살아남기 위해 어떤 방법을 쓰든 간에 모두 성공했으면 좋겠어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  탈룰라, 희생은 피할 수 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  희생이라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그건 제가 결정해야 하나요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  우린 모두 준비가 됐다. 피를 흘리지 않고서는 승리할 수 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  난 알고 있다. 아니, 너와 나 모두 잘 알고 있지. 네가 남쪽으로 내려가겠다던 결정이 전쟁의 도화선이 될 거라는 걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  제국은 감염자의 세력이 커지는 걸 좌시하지 않을 거다. 네가 공언한 대로 감염자들은 자신의 운명을 바꾸려고 행동을 취하겠지. 그러니 전쟁은 피할 수 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……그렇네요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자신의 생명이 소중하다는 걸 감염자 스스로 깨닫게 하는 게 중요해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그런 뒤에 일어나는 일에 대해서 감염자는 감당할 의무가 없죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  유격대가 참전하길 바라는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  탈룰라, 네게 유리하고 기회를 잡을 수 있는 우르수스가 다른 나라와 전쟁을 일으키기를 기다리고 있는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  아니면 네 자신이 전쟁을 일으키고 싶은 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (침묵한다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  대답하고 싶지 않은가 보군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  피를 흘리지 않는 승리 따윈 존재하지 않는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그래도 다른 사람을 희생시키지 않을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  엄청난 고통을 감당할 각오를 한 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  각오 같은 건 하지 않았어요, 왜냐면 우린 고통을 반드시 견뎌낼 테니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  모든 사람이 선한 존재이기를 바라는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이기심과 잔인함이 우르수스인의 천성이 아닐 거라고 믿을 뿐입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  언젠가 너는, 진정한 악을 마주하게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이미 마주했다고 생각하는데요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그랬길 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  부대와 동료에게 충성을 맹세한 전사가 사사로운 이익에 믿음을 배신했다면 제 입으로 배신자의 징계 명단을 발표했을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 우리와 뜻이 다른 감염자를 학살하고 정복해야 할 이유가 뭐죠? 우리의 적은 여기에 있지 않아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  탈룰라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  말씀하시죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  난 한때 많은 사람을 존경했다. 내가 존경했던 건 그들의 강함이 아니라, 그들의 정직함이었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  너도…… 그러길 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……명심하죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  페트로바, 프로스트노바의 위치는?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  ……누님은 아직 골짜기 입구에 있어. 우리가 도시를 점거할 때까지 거점을 지키시겠대.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리도 합류한다, 프로스트노바에게 직접 사과해야겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그렇다는 건…… 이걸로 괜찮은 겁니까, 대위님?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  적어도 세 개의 현지 주둔군이 근처에 있다. 이들을 모두 소탕해야 자원을 보낼 수 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  결과적으론 그녀의 결정이 맞다. 이동도시는 앞으로 나아갈 수 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="이노"]  앗, 탈룰라 누나!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="이노"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="이노"]  기분 안 좋은 일이라도 있었던 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……이노, 사샤.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  너희들, 원래 이름으로 계속 불리고 싶니?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  ……그런 건 왜 물어보는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  외부에서 행동하려면 자신을 보호할 이름이 있으면 좋을 것 같아서.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  자신이 이름을 선택하지 않으면 다른 사람이 지어준 이름으로 계속 불릴 수도 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  하지만 넌 이름을 안 바꿨잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  난 바꾸고 싶지 않았거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  왜지? 그럼 방금 말한 것과 다르지 않나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  왜냐면…… 난 말과 행동이 일치하는 사람이 되고 싶거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  그렇다는 건 지금 네 생각과 행동이 다르다는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="이노"]  사샤!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럴지도…… 맞아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그래서 지금의 이름을 계속 쓸 거야. 모든 사람에게 이 이름이 의미가 있는 건 아니겠지만.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내가 누구인지 모두에게 중요하지 않겠지만, 내게는 무척 소중하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  그럼 널 뭐라고 불러야 하지? 그렇게 말하니까 뭐라 불러야 할지 모르겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  사샤, 이렇게 얘기해둘게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  난 그저 반항자, 평범한 사람이라고 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이름? 중요하지 않아. 누구도 내 이름을 기억해선 안 돼. 내 이름이 부호처럼 쓰이거나 특별한 힘을 지녀서도 안 돼. 그건 그저 내 이름일 뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 원한다면, 지금은 탈룰라라고 불러도 돼. 이 이름을 부르면 내가 뒤돌아보겠지. 하지만 그것뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  탈룰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이노도 그렇게 불러.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  너희한테 들려주기에 좀 이른 것 같지만…… 그래도 너희에게 들려주고 싶은 말이 있어, 사샤.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  뭐지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  날 탈룰라라고 불러줬으면 해. 날 마음이 맞는 친구라고 생각해 준다면 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내가 죽어도 넌 내 이름을 기억하게 될 거야. 내가 살면서 해온 일 때문이 아니라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리가 함께했던 일들을 기억해줬으면 좋겠어, 탈룰라는 좋은 친구였다고 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="사샤"]  하지만 넌 나쁜 사람을 해치우고, 그들과 싸우고 있잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  싸우는 사람에게는 어떤 이름도 필요 없다고 생각해. 전쟁에서 싸우는 우리 모두가 전사 그 자체니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  고개 숙인 채 투사의 발자취를 따라가선 안 돼, 절대로!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  모두가 패트리어트 씨가 될 순 없지, 우린 누구나 실수를 해. 고개를 들고 자신이 어디로 향해 가는지 봐야지, 누군가의 명성을 보고 그 뒤를 따라선 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  네가 기억해야 하는 건, 친구의 이름이야. 너와 늘 함께했던 사람의 이름 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  엄청 매운 사탕을 먹이고 웃어대는 프로스트노바, 이상한 채소요리를 만들어주시는 선생님, 그리고 절대 포기하지 않고 가르쳐 주는 패트리어트 씨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그들은 모두 친구야, 투사가 아니라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  투사에게는 이름 따위 필요 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="이노"]  ……탈룰라 누나, 무슨 말인지 잘 모르겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  응…… 그러니까 내 신분 때문이 아니라 좋은 친구로서 네가 날 믿어줬으면 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내 친구들처럼 말이야.
 </t>
   </si>
 </sst>
@@ -1149,794 +1931,1382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>266</v>
+      </c>
+      <c r="D71" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>270</v>
+      </c>
+      <c r="D75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>273</v>
+      </c>
+      <c r="D78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D80" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>285</v>
+      </c>
+      <c r="D90" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
